--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,27 +632,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/artfynd/A 48258-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/artfynd/A 48258-2020.xlsx", "A 48258-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/kartor/A 48258-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/kartor/A 48258-2020.png", "A 48258-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/klagomål/A 48258-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/klagomål/A 48258-2020.docx", "A 48258-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/klagomålsmail/A 48258-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/klagomålsmail/A 48258-2020.docx", "A 48258-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/tillsyn/A 48258-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/tillsyn/A 48258-2020.docx", "A 48258-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/tillsynsmail/A 48258-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/tillsynsmail/A 48258-2020.docx", "A 48258-2020")</f>
         <v/>
       </c>
     </row>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -722,27 +722,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/artfynd/A 58132-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/artfynd/A 58132-2021.xlsx", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/kartor/A 58132-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/kartor/A 58132-2021.png", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/klagomål/A 58132-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/klagomål/A 58132-2021.docx", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/klagomålsmail/A 58132-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/klagomålsmail/A 58132-2021.docx", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/tillsyn/A 58132-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/tillsyn/A 58132-2021.docx", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/tillsynsmail/A 58132-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/tillsynsmail/A 58132-2021.docx", "A 58132-2021")</f>
         <v/>
       </c>
     </row>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -812,27 +812,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/artfynd/A 7384-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/artfynd/A 7384-2023.xlsx", "A 7384-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/kartor/A 7384-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/kartor/A 7384-2023.png", "A 7384-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/klagomål/A 7384-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/klagomål/A 7384-2023.docx", "A 7384-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/klagomålsmail/A 7384-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/klagomålsmail/A 7384-2023.docx", "A 7384-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/tillsyn/A 7384-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/tillsyn/A 7384-2023.docx", "A 7384-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/tillsynsmail/A 7384-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DEGERFORS/tillsynsmail/A 7384-2023.docx", "A 7384-2023")</f>
         <v/>
       </c>
     </row>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44102</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44487</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44966</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43332</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43357</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43367</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43377</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43377</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43434</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43438</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43501</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43504</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43521</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43521</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43572</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43601</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43611</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43613</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43623</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43647</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43654</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43675</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43706</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43717</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43717</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43745</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43745</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43745</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43759</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43776</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43783</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43789</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43809</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43816</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43817</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43845</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43871</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43873</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43896</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43913</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43916</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43923</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43942</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43948</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44020</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44110</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44179</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44230</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44382</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44382</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44397</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44432</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44438</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44463</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44463</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44470</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44470</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44515</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44529</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44529</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44578</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44579</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44609</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44609</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44643</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44651</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44671</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44805</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44816</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44853</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>44986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>44988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44988</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44995</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45001</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45022</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45057</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45116</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45119</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45160</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45160</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45160</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45163</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45163</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45163</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45163</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
